--- a/Code/Results/Cases/Case_0_178/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_178/res_line/loading_percent.xlsx
@@ -424,43 +424,43 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>5.635535583399585</v>
+        <v>9.844058765215477</v>
       </c>
       <c r="D2">
-        <v>4.834878578416137</v>
+        <v>8.736837116051161</v>
       </c>
       <c r="E2">
-        <v>6.844155500545007</v>
+        <v>13.02915449505992</v>
       </c>
       <c r="F2">
-        <v>24.6517040276186</v>
+        <v>33.02750896517701</v>
       </c>
       <c r="G2">
-        <v>32.62459522753296</v>
+        <v>35.89756582111963</v>
       </c>
       <c r="H2">
-        <v>10.17113375724056</v>
+        <v>15.79332949549297</v>
       </c>
       <c r="I2">
-        <v>18.26740070374068</v>
+        <v>25.77438479969034</v>
       </c>
       <c r="J2">
-        <v>5.26782844415931</v>
+        <v>9.834544528521278</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>5.400668456621623</v>
+        <v>9.993759175289808</v>
       </c>
       <c r="M2">
-        <v>27.61209729787951</v>
+        <v>23.86921922030173</v>
       </c>
       <c r="N2">
-        <v>19.91538528314336</v>
+        <v>17.62447888413172</v>
       </c>
       <c r="O2">
-        <v>18.36401380840709</v>
+        <v>25.06665480334934</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,43 +471,43 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>5.63391676837538</v>
+        <v>9.87429085068753</v>
       </c>
       <c r="D3">
-        <v>4.865882182453807</v>
+        <v>8.761697348414412</v>
       </c>
       <c r="E3">
-        <v>6.978082259986058</v>
+        <v>13.08315149208493</v>
       </c>
       <c r="F3">
-        <v>23.77995553061275</v>
+        <v>32.98994453066798</v>
       </c>
       <c r="G3">
-        <v>30.97909288528187</v>
+        <v>35.67223678891654</v>
       </c>
       <c r="H3">
-        <v>9.97405188015642</v>
+        <v>15.80934189931994</v>
       </c>
       <c r="I3">
-        <v>17.71388295732962</v>
+        <v>25.76848845433802</v>
       </c>
       <c r="J3">
-        <v>5.354422715511462</v>
+        <v>9.865625138100018</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>5.484659899038779</v>
+        <v>10.02419022330545</v>
       </c>
       <c r="M3">
-        <v>25.93912697953229</v>
+        <v>23.25965987104886</v>
       </c>
       <c r="N3">
-        <v>19.05559222092968</v>
+        <v>17.33153407901387</v>
       </c>
       <c r="O3">
-        <v>17.74576557867353</v>
+        <v>25.04279054237214</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,43 +518,43 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>5.637038533893811</v>
+        <v>9.894497025917307</v>
       </c>
       <c r="D4">
-        <v>4.887273556678929</v>
+        <v>8.778022091871206</v>
       </c>
       <c r="E4">
-        <v>7.063514367215899</v>
+        <v>13.11803765197161</v>
       </c>
       <c r="F4">
-        <v>23.25000947092748</v>
+        <v>32.97520943015952</v>
       </c>
       <c r="G4">
-        <v>29.95300822428763</v>
+        <v>35.54435068655263</v>
       </c>
       <c r="H4">
-        <v>9.858493895483441</v>
+        <v>15.82215658180585</v>
       </c>
       <c r="I4">
-        <v>17.3806453916011</v>
+        <v>25.77087485076397</v>
       </c>
       <c r="J4">
-        <v>5.409029069389912</v>
+        <v>9.885639224593291</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>5.537637380345325</v>
+        <v>10.0437879153155</v>
       </c>
       <c r="M4">
-        <v>24.85312599896877</v>
+        <v>22.87676099589653</v>
       </c>
       <c r="N4">
-        <v>18.50999969756075</v>
+        <v>17.15104903326928</v>
       </c>
       <c r="O4">
-        <v>17.37056536051233</v>
+        <v>25.03409941806191</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,43 +565,43 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>5.639311133462237</v>
+        <v>9.903144164633858</v>
       </c>
       <c r="D5">
-        <v>4.896566568186479</v>
+        <v>8.784941460452746</v>
       </c>
       <c r="E5">
-        <v>7.099125779022287</v>
+        <v>13.1326903725186</v>
       </c>
       <c r="F5">
-        <v>23.03567841529274</v>
+        <v>32.97130335297557</v>
       </c>
       <c r="G5">
-        <v>29.53149071236416</v>
+        <v>35.49491564601338</v>
       </c>
       <c r="H5">
-        <v>9.812793670523739</v>
+        <v>15.82812834910382</v>
       </c>
       <c r="I5">
-        <v>17.24667090621724</v>
+        <v>25.77335842669652</v>
       </c>
       <c r="J5">
-        <v>5.43164995824408</v>
+        <v>9.894029731067775</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>5.55958671907087</v>
+        <v>10.05200431851118</v>
       </c>
       <c r="M5">
-        <v>24.39592858631183</v>
+        <v>22.71874793818962</v>
       </c>
       <c r="N5">
-        <v>18.28350823596075</v>
+        <v>17.07743500195658</v>
       </c>
       <c r="O5">
-        <v>17.21897239355327</v>
+        <v>25.03205951695356</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,43 +612,43 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>5.639747905638613</v>
+        <v>9.904604947405364</v>
       </c>
       <c r="D6">
-        <v>4.89814398057844</v>
+        <v>8.786106543796866</v>
       </c>
       <c r="E6">
-        <v>7.105086972784182</v>
+        <v>13.13514982397213</v>
       </c>
       <c r="F6">
-        <v>23.00019592000097</v>
+        <v>32.97078158601377</v>
       </c>
       <c r="G6">
-        <v>29.46131260699114</v>
+        <v>35.4868701286831</v>
       </c>
       <c r="H6">
-        <v>9.805289680794299</v>
+        <v>15.82916521875148</v>
       </c>
       <c r="I6">
-        <v>17.22453923934223</v>
+        <v>25.77386209006275</v>
       </c>
       <c r="J6">
-        <v>5.435428586416746</v>
+        <v>9.895437156300369</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>5.563253365712172</v>
+        <v>10.05338256702093</v>
       </c>
       <c r="M6">
-        <v>24.31913184863542</v>
+        <v>22.69239629100449</v>
       </c>
       <c r="N6">
-        <v>18.24565754376205</v>
+        <v>17.06521018692935</v>
       </c>
       <c r="O6">
-        <v>17.19388516368286</v>
+        <v>25.03181155484325</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,43 +659,43 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>5.637065178020578</v>
+        <v>9.894611972634555</v>
       </c>
       <c r="D7">
-        <v>4.887396574975136</v>
+        <v>8.778114327887746</v>
       </c>
       <c r="E7">
-        <v>7.063991416736499</v>
+        <v>13.11823349587558</v>
       </c>
       <c r="F7">
-        <v>23.24711194706142</v>
+        <v>32.97514825029521</v>
       </c>
       <c r="G7">
-        <v>29.94733634486716</v>
+        <v>35.54367307963571</v>
       </c>
       <c r="H7">
-        <v>9.857871912165855</v>
+        <v>15.82223408446499</v>
       </c>
       <c r="I7">
-        <v>17.37883097672825</v>
+        <v>25.77090222661895</v>
       </c>
       <c r="J7">
-        <v>5.409332642098589</v>
+        <v>9.885751431163907</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>5.53793192783756</v>
+        <v>10.04389779176521</v>
       </c>
       <c r="M7">
-        <v>24.8470191478962</v>
+        <v>22.87463772736418</v>
       </c>
       <c r="N7">
-        <v>18.50696158165595</v>
+        <v>17.15005639152542</v>
       </c>
       <c r="O7">
-        <v>17.36851537855404</v>
+        <v>25.03406582381274</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,43 +706,43 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>5.634102604777519</v>
+        <v>9.854141476060454</v>
       </c>
       <c r="D8">
-        <v>4.845069799092647</v>
+        <v>8.745188971261955</v>
       </c>
       <c r="E8">
-        <v>6.889664149477587</v>
+        <v>13.04741374440801</v>
       </c>
       <c r="F8">
-        <v>24.35019189653695</v>
+        <v>33.01283087691836</v>
       </c>
       <c r="G8">
-        <v>32.06081137896273</v>
+        <v>35.81773005417257</v>
       </c>
       <c r="H8">
-        <v>10.10206144605528</v>
+        <v>15.798231259424</v>
       </c>
       <c r="I8">
-        <v>18.07526577679891</v>
+        <v>25.77110569027726</v>
       </c>
       <c r="J8">
-        <v>5.297392173911573</v>
+        <v>9.845068385782335</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>5.429341088267392</v>
+        <v>10.00406270653408</v>
       </c>
       <c r="M8">
-        <v>27.04753036019576</v>
+        <v>23.66094432118468</v>
       </c>
       <c r="N8">
-        <v>19.6227569686698</v>
+        <v>17.52365272629315</v>
       </c>
       <c r="O8">
-        <v>18.15004164964778</v>
+        <v>25.05719102380449</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,43 +753,43 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>5.6624630085958</v>
+        <v>9.787834115759251</v>
       </c>
       <c r="D9">
-        <v>4.78151993222852</v>
+        <v>8.689025767988042</v>
       </c>
       <c r="E9">
-        <v>6.573621436158527</v>
+        <v>12.92223765737862</v>
       </c>
       <c r="F9">
-        <v>26.54374584283075</v>
+        <v>33.1525658296425</v>
       </c>
       <c r="G9">
-        <v>36.05971816785335</v>
+        <v>36.43587832893641</v>
       </c>
       <c r="H9">
-        <v>10.6231766724592</v>
+        <v>15.7748419301489</v>
       </c>
       <c r="I9">
-        <v>19.48694875585011</v>
+        <v>25.81910004050023</v>
       </c>
       <c r="J9">
-        <v>5.088946776704844</v>
+        <v>9.772642608495746</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>5.227221147346104</v>
+        <v>9.933160605705568</v>
       </c>
       <c r="M9">
-        <v>30.89206387626501</v>
+        <v>25.12668565930233</v>
       </c>
       <c r="N9">
-        <v>21.65995614118764</v>
+        <v>18.2475359574571</v>
       </c>
       <c r="O9">
-        <v>19.70960769221922</v>
+        <v>25.14967602768956</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,43 +800,43 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>5.706150422040027</v>
+        <v>9.747096005706975</v>
       </c>
       <c r="D10">
-        <v>4.747795806828078</v>
+        <v>8.652870328031083</v>
       </c>
       <c r="E10">
-        <v>6.357875385214061</v>
+        <v>12.83856692216571</v>
       </c>
       <c r="F10">
-        <v>28.16010174227947</v>
+        <v>33.29491972461639</v>
       </c>
       <c r="G10">
-        <v>38.88746955483259</v>
+        <v>36.93581680252016</v>
       </c>
       <c r="H10">
-        <v>11.03041740050685</v>
+        <v>15.77209831970058</v>
       </c>
       <c r="I10">
-        <v>20.5440739127868</v>
+        <v>25.88323362928522</v>
       </c>
       <c r="J10">
-        <v>4.942059802570876</v>
+        <v>9.723872584602436</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>5.084831235720907</v>
+        <v>9.885425445999802</v>
       </c>
       <c r="M10">
-        <v>33.42630969155111</v>
+        <v>26.14762121130933</v>
       </c>
       <c r="N10">
-        <v>23.0529843099314</v>
+        <v>18.76906311125303</v>
       </c>
       <c r="O10">
-        <v>20.86242920338011</v>
+        <v>25.24606804762422</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,43 +847,43 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>5.731401816434422</v>
+        <v>9.730299451296183</v>
       </c>
       <c r="D11">
-        <v>4.735524825513101</v>
+        <v>8.637528207826145</v>
       </c>
       <c r="E11">
-        <v>6.26350716382174</v>
+        <v>12.80229244486571</v>
       </c>
       <c r="F11">
-        <v>28.89415191604925</v>
+        <v>33.36816659101643</v>
       </c>
       <c r="G11">
-        <v>40.14705217055427</v>
+        <v>37.17238225691322</v>
       </c>
       <c r="H11">
-        <v>11.22068826038996</v>
+        <v>15.77398191973428</v>
       </c>
       <c r="I11">
-        <v>21.02789503208478</v>
+        <v>25.9186283028718</v>
       </c>
       <c r="J11">
-        <v>4.876482225358285</v>
+        <v>9.70264128637521</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>5.021265232229261</v>
+        <v>9.864646620192966</v>
       </c>
       <c r="M11">
-        <v>34.51592631926548</v>
+        <v>26.59817075928361</v>
       </c>
       <c r="N11">
-        <v>23.66233998273369</v>
+        <v>19.00308649174737</v>
       </c>
       <c r="O11">
-        <v>21.38680415069733</v>
+        <v>25.29600906267951</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,43 +894,43 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>5.741769763433894</v>
+        <v>9.724188910703425</v>
       </c>
       <c r="D12">
-        <v>4.731341984925399</v>
+        <v>8.631877249840732</v>
       </c>
       <c r="E12">
-        <v>6.228337550538379</v>
+        <v>12.788812474399</v>
       </c>
       <c r="F12">
-        <v>29.17179108543601</v>
+        <v>33.39710997410911</v>
       </c>
       <c r="G12">
-        <v>40.6200263897514</v>
+        <v>37.26320495757874</v>
       </c>
       <c r="H12">
-        <v>11.29343812309423</v>
+        <v>15.77514471156606</v>
       </c>
       <c r="I12">
-        <v>21.21143003392143</v>
+        <v>25.9329197755264</v>
       </c>
       <c r="J12">
-        <v>4.851818595366977</v>
+        <v>9.69473813457129</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>4.997358166312165</v>
+        <v>9.856912179696399</v>
       </c>
       <c r="M12">
-        <v>34.91944553612976</v>
+        <v>26.76665685768641</v>
       </c>
       <c r="N12">
-        <v>23.88946764278209</v>
+        <v>19.09116365522377</v>
       </c>
       <c r="O12">
-        <v>21.58526052909733</v>
+        <v>25.31578717419914</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,43 +941,43 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>5.739500496859402</v>
+        <v>9.725493802151004</v>
       </c>
       <c r="D13">
-        <v>4.732221834269044</v>
+        <v>8.633087225793961</v>
       </c>
       <c r="E13">
-        <v>6.235886396700477</v>
+        <v>12.79170423519728</v>
       </c>
       <c r="F13">
-        <v>29.11201322934607</v>
+        <v>33.39082309165776</v>
       </c>
       <c r="G13">
-        <v>40.51834265376293</v>
+        <v>37.24359069720514</v>
       </c>
       <c r="H13">
-        <v>11.27773940010652</v>
+        <v>15.774874307155</v>
       </c>
       <c r="I13">
-        <v>21.17188951208323</v>
+        <v>25.92980245327168</v>
       </c>
       <c r="J13">
-        <v>4.857122980579493</v>
+        <v>9.696434149794495</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>5.002499847370293</v>
+        <v>9.858571976898455</v>
       </c>
       <c r="M13">
-        <v>34.83294485472631</v>
+        <v>26.73046693625592</v>
       </c>
       <c r="N13">
-        <v>23.84071443303169</v>
+        <v>19.07222000281633</v>
       </c>
       <c r="O13">
-        <v>21.54252585580539</v>
+        <v>25.31148922751049</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,43 +988,43 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>5.732238462136623</v>
+        <v>9.729791721835237</v>
       </c>
       <c r="D14">
-        <v>4.735171271249539</v>
+        <v>8.637060118981152</v>
       </c>
       <c r="E14">
-        <v>6.260602259042518</v>
+        <v>12.80117830511332</v>
       </c>
       <c r="F14">
-        <v>28.91700080992727</v>
+        <v>33.3705236913007</v>
       </c>
       <c r="G14">
-        <v>40.18604489328692</v>
+        <v>37.1798298664904</v>
       </c>
       <c r="H14">
-        <v>11.22665955571886</v>
+        <v>15.77406858003028</v>
       </c>
       <c r="I14">
-        <v>21.04298860163938</v>
+        <v>25.91978630727558</v>
       </c>
       <c r="J14">
-        <v>4.874449798880579</v>
+        <v>9.70198835327238</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>5.019295154322482</v>
+        <v>9.864007619783365</v>
       </c>
       <c r="M14">
-        <v>34.5493063326843</v>
+        <v>26.61207555508508</v>
       </c>
       <c r="N14">
-        <v>23.68109912237604</v>
+        <v>19.01034396255031</v>
       </c>
       <c r="O14">
-        <v>21.40313406336664</v>
+        <v>25.29761891146322</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,43 +1035,43 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>5.727896139899613</v>
+        <v>9.732456884226345</v>
       </c>
       <c r="D15">
-        <v>4.73703898399629</v>
+        <v>8.639514302867509</v>
       </c>
       <c r="E15">
-        <v>6.275815836108245</v>
+        <v>12.80701481537658</v>
       </c>
       <c r="F15">
-        <v>28.79750322932814</v>
+        <v>33.35824637315818</v>
       </c>
       <c r="G15">
-        <v>39.98197831304316</v>
+        <v>37.1409338268214</v>
       </c>
       <c r="H15">
-        <v>11.19546201542737</v>
+        <v>15.7736335600026</v>
       </c>
       <c r="I15">
-        <v>20.96407246239414</v>
+        <v>25.91376660915557</v>
       </c>
       <c r="J15">
-        <v>4.885084718957504</v>
+        <v>9.705408246342119</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>5.029603824846839</v>
+        <v>9.867354548541657</v>
       </c>
       <c r="M15">
-        <v>34.3743852637518</v>
+        <v>26.53927669144155</v>
       </c>
       <c r="N15">
-        <v>23.58285519969913</v>
+        <v>18.97237018398888</v>
       </c>
       <c r="O15">
-        <v>21.31773510949947</v>
+        <v>25.28923549022772</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,43 +1082,43 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>5.704611198556245</v>
+        <v>9.748228655499807</v>
       </c>
       <c r="D16">
-        <v>4.748661419347265</v>
+        <v>8.653895197415414</v>
       </c>
       <c r="E16">
-        <v>6.364120391471959</v>
+        <v>12.84097345947181</v>
       </c>
       <c r="F16">
-        <v>28.11209116600583</v>
+        <v>33.29030250810905</v>
       </c>
       <c r="G16">
-        <v>38.8045995439777</v>
+        <v>36.92053437133039</v>
       </c>
       <c r="H16">
-        <v>11.01808164796859</v>
+        <v>15.77203817549915</v>
       </c>
       <c r="I16">
-        <v>20.51250512922054</v>
+        <v>25.8810451633544</v>
       </c>
       <c r="J16">
-        <v>4.946369649442246</v>
+        <v>9.725279256969012</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>5.089008913873142</v>
+        <v>9.886802180168162</v>
       </c>
       <c r="M16">
-        <v>33.35382782139584</v>
+        <v>26.11788594316058</v>
       </c>
       <c r="N16">
-        <v>23.0126607365891</v>
+        <v>18.75369744674846</v>
       </c>
       <c r="O16">
-        <v>20.82814947583007</v>
+        <v>25.24292608499181</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,43 +1129,43 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>5.691727455371844</v>
+        <v>9.758348896506064</v>
       </c>
       <c r="D17">
-        <v>4.7565934129428</v>
+        <v>8.663000361444499</v>
       </c>
       <c r="E17">
-        <v>6.419274292432697</v>
+        <v>12.86226337965937</v>
       </c>
       <c r="F17">
-        <v>27.69117706605058</v>
+        <v>33.25078580225779</v>
       </c>
       <c r="G17">
-        <v>38.07532828680041</v>
+        <v>36.78761589974913</v>
       </c>
       <c r="H17">
-        <v>10.91053181734014</v>
+        <v>15.77186105892083</v>
       </c>
       <c r="I17">
-        <v>20.23615718754903</v>
+        <v>25.86256064650723</v>
       </c>
       <c r="J17">
-        <v>4.984277527798872</v>
+        <v>9.737713526722246</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>5.125754664063723</v>
+        <v>9.898972035763345</v>
       </c>
       <c r="M17">
-        <v>32.71154843538501</v>
+        <v>25.85572421148386</v>
       </c>
       <c r="N17">
-        <v>22.65653653635951</v>
+        <v>18.61866605418301</v>
       </c>
       <c r="O17">
-        <v>20.52770903079803</v>
+        <v>25.21607065628902</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,43 +1176,43 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>5.684821371674319</v>
+        <v>9.764333114028803</v>
       </c>
       <c r="D18">
-        <v>4.76144327521975</v>
+        <v>8.668341443709657</v>
       </c>
       <c r="E18">
-        <v>6.451351166756623</v>
+        <v>12.87467709143227</v>
       </c>
       <c r="F18">
-        <v>27.44896877268627</v>
+        <v>33.22885686948525</v>
       </c>
       <c r="G18">
-        <v>37.65335515587049</v>
+        <v>36.71202971123709</v>
       </c>
       <c r="H18">
-        <v>10.84914523274657</v>
+        <v>15.77205402046073</v>
       </c>
       <c r="I18">
-        <v>20.07748966656314</v>
+        <v>25.85251472711774</v>
       </c>
       <c r="J18">
-        <v>5.006198636530359</v>
+        <v>9.744955258809652</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>5.147004152973642</v>
+        <v>9.906059962052939</v>
       </c>
       <c r="M18">
-        <v>32.33617449835411</v>
+        <v>25.70363641783431</v>
       </c>
       <c r="N18">
-        <v>22.44941804673472</v>
+        <v>18.54070079024731</v>
       </c>
       <c r="O18">
-        <v>20.35490385942746</v>
+        <v>25.20119815315071</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,43 +1223,43 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>5.682568698484896</v>
+        <v>9.766387305673222</v>
       </c>
       <c r="D19">
-        <v>4.76313408241719</v>
+        <v>8.67016771482327</v>
       </c>
       <c r="E19">
-        <v>6.462271987401985</v>
+        <v>12.87890909012271</v>
       </c>
       <c r="F19">
-        <v>27.36694756367529</v>
+        <v>33.22156992537546</v>
       </c>
       <c r="G19">
-        <v>37.51005598365815</v>
+        <v>36.68658830068124</v>
       </c>
       <c r="H19">
-        <v>10.82844281407019</v>
+        <v>15.77217001265567</v>
       </c>
       <c r="I19">
-        <v>20.02381907141946</v>
+        <v>25.84921414885421</v>
       </c>
       <c r="J19">
-        <v>5.013641207505601</v>
+        <v>9.747422637279209</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>5.154218782787793</v>
+        <v>9.908474968792643</v>
       </c>
       <c r="M19">
-        <v>32.20805744727989</v>
+        <v>25.65192315168778</v>
       </c>
       <c r="N19">
-        <v>22.37890289176626</v>
+        <v>18.51425425121173</v>
       </c>
       <c r="O19">
-        <v>20.29639865268329</v>
+        <v>25.1962614386356</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,43 +1270,43 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>5.693046519639274</v>
+        <v>9.757254673368129</v>
       </c>
       <c r="D20">
-        <v>4.755719115126785</v>
+        <v>8.662020335311887</v>
       </c>
       <c r="E20">
-        <v>6.413366296453869</v>
+        <v>12.85997961661589</v>
       </c>
       <c r="F20">
-        <v>27.73599664629612</v>
+        <v>33.25490972141372</v>
       </c>
       <c r="G20">
-        <v>38.15322212492254</v>
+        <v>36.80167630092758</v>
       </c>
       <c r="H20">
-        <v>10.92193187796579</v>
+        <v>15.77184940410773</v>
       </c>
       <c r="I20">
-        <v>20.26554664357238</v>
+        <v>25.86446775923058</v>
       </c>
       <c r="J20">
-        <v>4.980230075441875</v>
+        <v>9.736380580484266</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>5.121831254434152</v>
+        <v>9.897667415058317</v>
       </c>
       <c r="M20">
-        <v>32.78053623382785</v>
+        <v>25.88376723832053</v>
       </c>
       <c r="N20">
-        <v>22.69468403988644</v>
+        <v>18.63307188450876</v>
       </c>
       <c r="O20">
-        <v>20.55969224876165</v>
+        <v>25.21887011750598</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,43 +1317,43 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>5.734349375228096</v>
+        <v>9.728522531957097</v>
       </c>
       <c r="D21">
-        <v>4.734292176059529</v>
+        <v>8.635888876168446</v>
       </c>
       <c r="E21">
-        <v>6.253327060434501</v>
+        <v>12.79838858829224</v>
       </c>
       <c r="F21">
-        <v>28.97429066829039</v>
+        <v>33.37645349944501</v>
       </c>
       <c r="G21">
-        <v>40.28375830727133</v>
+        <v>37.19852490344328</v>
       </c>
       <c r="H21">
-        <v>11.24164415303833</v>
+        <v>15.77429304978773</v>
       </c>
       <c r="I21">
-        <v>21.08084186353626</v>
+        <v>25.92270423847943</v>
       </c>
       <c r="J21">
-        <v>4.869355978516359</v>
+        <v>9.700353244103718</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>5.014357594782286</v>
+        <v>9.862407406116446</v>
       </c>
       <c r="M21">
-        <v>34.63286463201208</v>
+        <v>26.64690869400663</v>
       </c>
       <c r="N21">
-        <v>23.72808117066291</v>
+        <v>19.02853378686873</v>
       </c>
       <c r="O21">
-        <v>21.44408060488523</v>
+        <v>25.30166952311777</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,43 +1364,43 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>5.766054269978002</v>
+        <v>9.711201491787778</v>
       </c>
       <c r="D22">
-        <v>4.723003594738469</v>
+        <v>8.619735822333171</v>
       </c>
       <c r="E22">
-        <v>6.152042415931102</v>
+        <v>12.75962939941683</v>
       </c>
       <c r="F22">
-        <v>29.78162014881115</v>
+        <v>33.46291324117691</v>
       </c>
       <c r="G22">
-        <v>41.65283333156567</v>
+        <v>37.46508296577113</v>
       </c>
       <c r="H22">
-        <v>11.45465772676785</v>
+        <v>15.7785096546764</v>
       </c>
       <c r="I22">
-        <v>21.61553214479763</v>
+        <v>25.9659391550113</v>
       </c>
       <c r="J22">
-        <v>4.797874704182856</v>
+        <v>9.677603713888812</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>4.945068337765668</v>
+        <v>9.840144037925779</v>
       </c>
       <c r="M22">
-        <v>35.80797681564686</v>
+        <v>27.13321399595622</v>
       </c>
       <c r="N22">
-        <v>24.38231248627821</v>
+        <v>19.28379558474168</v>
       </c>
       <c r="O22">
-        <v>22.02138867349736</v>
+        <v>25.36082934911078</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,43 +1411,43 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>5.748691249679863</v>
+        <v>9.720312606177821</v>
       </c>
       <c r="D23">
-        <v>4.728772419690898</v>
+        <v>8.628272389339507</v>
       </c>
       <c r="E23">
-        <v>6.205788462861968</v>
+        <v>12.78017942135417</v>
       </c>
       <c r="F23">
-        <v>29.35095425188572</v>
+        <v>33.41613055918323</v>
       </c>
       <c r="G23">
-        <v>40.92430236289373</v>
+        <v>37.32218268043164</v>
       </c>
       <c r="H23">
-        <v>11.34060313856531</v>
+        <v>15.77601982399491</v>
       </c>
       <c r="I23">
-        <v>21.3300163462841</v>
+        <v>25.9423927321246</v>
       </c>
       <c r="J23">
-        <v>4.835939053654843</v>
+        <v>9.689672879847414</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>4.981965659294847</v>
+        <v>9.85195513283538</v>
       </c>
       <c r="M23">
-        <v>35.17747886253414</v>
+        <v>26.8748433777057</v>
       </c>
       <c r="N23">
-        <v>24.03510699785193</v>
+        <v>19.14787502785337</v>
       </c>
       <c r="O23">
-        <v>21.71336046197104</v>
+        <v>25.32879638091394</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,43 +1458,43 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>5.692448612802989</v>
+        <v>9.757748854746925</v>
       </c>
       <c r="D24">
-        <v>4.756113484647583</v>
+        <v>8.66246307368783</v>
       </c>
       <c r="E24">
-        <v>6.416036156351374</v>
+        <v>12.86101156428782</v>
       </c>
       <c r="F24">
-        <v>27.7157343848035</v>
+        <v>33.25304283643084</v>
       </c>
       <c r="G24">
-        <v>38.11801473503492</v>
+        <v>36.79531700123185</v>
       </c>
       <c r="H24">
-        <v>10.91677652193827</v>
+        <v>15.77185375490755</v>
       </c>
       <c r="I24">
-        <v>20.25225901304267</v>
+        <v>25.86360374306322</v>
       </c>
       <c r="J24">
-        <v>4.98205953123305</v>
+        <v>9.736982915410975</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>5.12360464138176</v>
+        <v>9.89825694959025</v>
       </c>
       <c r="M24">
-        <v>32.74936590894505</v>
+        <v>25.87109323526688</v>
       </c>
       <c r="N24">
-        <v>22.67744495079941</v>
+        <v>18.6265600426357</v>
       </c>
       <c r="O24">
-        <v>20.54523287040767</v>
+        <v>25.21760271404456</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,43 +1505,43 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>5.650921028283751</v>
+        <v>9.804372352541749</v>
       </c>
       <c r="D25">
-        <v>4.796518190094998</v>
+        <v>8.703321360655993</v>
       </c>
       <c r="E25">
-        <v>6.656291054019523</v>
+        <v>12.95464018715392</v>
       </c>
       <c r="F25">
-        <v>25.9486066801074</v>
+        <v>33.10775429106086</v>
       </c>
       <c r="G25">
-        <v>34.99603142273838</v>
+        <v>36.2603482985898</v>
       </c>
       <c r="H25">
-        <v>10.47781788045408</v>
+        <v>15.77863280978132</v>
       </c>
       <c r="I25">
-        <v>19.10100744944774</v>
+        <v>25.80103177517433</v>
       </c>
       <c r="J25">
-        <v>5.144200960272614</v>
+        <v>9.791452782721722</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>5.280790180982288</v>
+        <v>9.951573456086592</v>
       </c>
       <c r="M25">
-        <v>29.90285452860022</v>
+        <v>24.73935125211131</v>
       </c>
       <c r="N25">
-        <v>21.12632852363094</v>
+        <v>18.05316775886538</v>
       </c>
       <c r="O25">
-        <v>19.28585913490839</v>
+        <v>25.11963562153047</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_178/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_178/res_line/loading_percent.xlsx
@@ -424,43 +424,43 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>9.844058765215477</v>
+        <v>5.63553558339959</v>
       </c>
       <c r="D2">
-        <v>8.736837116051161</v>
+        <v>4.834878578416127</v>
       </c>
       <c r="E2">
-        <v>13.02915449505992</v>
+        <v>6.844155500545007</v>
       </c>
       <c r="F2">
-        <v>33.02750896517701</v>
+        <v>24.65170402761861</v>
       </c>
       <c r="G2">
-        <v>35.89756582111963</v>
+        <v>32.62459522753301</v>
       </c>
       <c r="H2">
-        <v>15.79332949549297</v>
+        <v>10.17113375724055</v>
       </c>
       <c r="I2">
-        <v>25.77438479969034</v>
+        <v>18.2674007037407</v>
       </c>
       <c r="J2">
-        <v>9.834544528521278</v>
+        <v>5.267828444159278</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>9.993759175289808</v>
+        <v>5.400668456621625</v>
       </c>
       <c r="M2">
-        <v>23.86921922030173</v>
+        <v>27.61209729787952</v>
       </c>
       <c r="N2">
-        <v>17.62447888413172</v>
+        <v>19.91538528314338</v>
       </c>
       <c r="O2">
-        <v>25.06665480334934</v>
+        <v>18.36401380840712</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,43 +471,43 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>9.87429085068753</v>
+        <v>5.63391676837515</v>
       </c>
       <c r="D3">
-        <v>8.761697348414412</v>
+        <v>4.865882182453809</v>
       </c>
       <c r="E3">
-        <v>13.08315149208493</v>
+        <v>6.978082259985925</v>
       </c>
       <c r="F3">
-        <v>32.98994453066798</v>
+        <v>23.77995553061262</v>
       </c>
       <c r="G3">
-        <v>35.67223678891654</v>
+        <v>30.97909288528172</v>
       </c>
       <c r="H3">
-        <v>15.80934189931994</v>
+        <v>9.97405188015642</v>
       </c>
       <c r="I3">
-        <v>25.76848845433802</v>
+        <v>17.71388295732951</v>
       </c>
       <c r="J3">
-        <v>9.865625138100018</v>
+        <v>5.354422715511395</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>10.02419022330545</v>
+        <v>5.484659899038678</v>
       </c>
       <c r="M3">
-        <v>23.25965987104886</v>
+        <v>25.93912697953225</v>
       </c>
       <c r="N3">
-        <v>17.33153407901387</v>
+        <v>19.05559222092966</v>
       </c>
       <c r="O3">
-        <v>25.04279054237214</v>
+        <v>17.74576557867343</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,43 +518,43 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>9.894497025917307</v>
+        <v>5.637038533893607</v>
       </c>
       <c r="D4">
-        <v>8.778022091871206</v>
+        <v>4.887273556678928</v>
       </c>
       <c r="E4">
-        <v>13.11803765197161</v>
+        <v>7.063514367215832</v>
       </c>
       <c r="F4">
-        <v>32.97520943015952</v>
+        <v>23.25000947092748</v>
       </c>
       <c r="G4">
-        <v>35.54435068655263</v>
+        <v>29.95300822428768</v>
       </c>
       <c r="H4">
-        <v>15.82215658180585</v>
+        <v>9.858493895483388</v>
       </c>
       <c r="I4">
-        <v>25.77087485076397</v>
+        <v>17.3806453916011</v>
       </c>
       <c r="J4">
-        <v>9.885639224593291</v>
+        <v>5.409029069389846</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>10.0437879153155</v>
+        <v>5.537637380345291</v>
       </c>
       <c r="M4">
-        <v>22.87676099589653</v>
+        <v>24.85312599896875</v>
       </c>
       <c r="N4">
-        <v>17.15104903326928</v>
+        <v>18.50999969756077</v>
       </c>
       <c r="O4">
-        <v>25.03409941806191</v>
+        <v>17.37056536051233</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,43 +565,43 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>9.903144164633858</v>
+        <v>5.639311133462233</v>
       </c>
       <c r="D5">
-        <v>8.784941460452746</v>
+        <v>4.896566568186357</v>
       </c>
       <c r="E5">
-        <v>13.1326903725186</v>
+        <v>7.099125779022286</v>
       </c>
       <c r="F5">
-        <v>32.97130335297557</v>
+        <v>23.03567841529276</v>
       </c>
       <c r="G5">
-        <v>35.49491564601338</v>
+        <v>29.53149071236422</v>
       </c>
       <c r="H5">
-        <v>15.82812834910382</v>
+        <v>9.812793670523746</v>
       </c>
       <c r="I5">
-        <v>25.77335842669652</v>
+        <v>17.24667090621729</v>
       </c>
       <c r="J5">
-        <v>9.894029731067775</v>
+        <v>5.431649958244143</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>10.05200431851118</v>
+        <v>5.559586719070872</v>
       </c>
       <c r="M5">
-        <v>22.71874793818962</v>
+        <v>24.39592858631184</v>
       </c>
       <c r="N5">
-        <v>17.07743500195658</v>
+        <v>18.28350823596077</v>
       </c>
       <c r="O5">
-        <v>25.03205951695356</v>
+        <v>17.21897239355333</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,43 +612,43 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>9.904604947405364</v>
+        <v>5.639747905638496</v>
       </c>
       <c r="D6">
-        <v>8.786106543796866</v>
+        <v>4.898143980578568</v>
       </c>
       <c r="E6">
-        <v>13.13514982397213</v>
+        <v>7.105086972784183</v>
       </c>
       <c r="F6">
-        <v>32.97078158601377</v>
+        <v>23.00019592000092</v>
       </c>
       <c r="G6">
-        <v>35.4868701286831</v>
+        <v>29.46131260699109</v>
       </c>
       <c r="H6">
-        <v>15.82916521875148</v>
+        <v>9.805289680794287</v>
       </c>
       <c r="I6">
-        <v>25.77386209006275</v>
+        <v>17.22453923934216</v>
       </c>
       <c r="J6">
-        <v>9.895437156300369</v>
+        <v>5.43542858641668</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>10.05338256702093</v>
+        <v>5.563253365712241</v>
       </c>
       <c r="M6">
-        <v>22.69239629100449</v>
+        <v>24.3191318486354</v>
       </c>
       <c r="N6">
-        <v>17.06521018692935</v>
+        <v>18.24565754376205</v>
       </c>
       <c r="O6">
-        <v>25.03181155484325</v>
+        <v>17.19388516368283</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,43 +659,43 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>9.894611972634555</v>
+        <v>5.637065178020476</v>
       </c>
       <c r="D7">
-        <v>8.778114327887746</v>
+        <v>4.887396574974955</v>
       </c>
       <c r="E7">
-        <v>13.11823349587558</v>
+        <v>7.063991416736433</v>
       </c>
       <c r="F7">
-        <v>32.97514825029521</v>
+        <v>23.24711194706116</v>
       </c>
       <c r="G7">
-        <v>35.54367307963571</v>
+        <v>29.94733634486708</v>
       </c>
       <c r="H7">
-        <v>15.82223408446499</v>
+        <v>9.857871912165772</v>
       </c>
       <c r="I7">
-        <v>25.77090222661895</v>
+        <v>17.3788309767281</v>
       </c>
       <c r="J7">
-        <v>9.885751431163907</v>
+        <v>5.409332642098624</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>10.04389779176521</v>
+        <v>5.537931927837528</v>
       </c>
       <c r="M7">
-        <v>22.87463772736418</v>
+        <v>24.84701914789616</v>
       </c>
       <c r="N7">
-        <v>17.15005639152542</v>
+        <v>18.50696158165591</v>
       </c>
       <c r="O7">
-        <v>25.03406582381274</v>
+        <v>17.36851537855393</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,43 +706,43 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>9.854141476060454</v>
+        <v>5.634102604777421</v>
       </c>
       <c r="D8">
-        <v>8.745188971261955</v>
+        <v>4.8450697990924</v>
       </c>
       <c r="E8">
-        <v>13.04741374440801</v>
+        <v>6.889664149477584</v>
       </c>
       <c r="F8">
-        <v>33.01283087691836</v>
+        <v>24.35019189653685</v>
       </c>
       <c r="G8">
-        <v>35.81773005417257</v>
+        <v>32.06081137896275</v>
       </c>
       <c r="H8">
-        <v>15.798231259424</v>
+        <v>10.10206144605515</v>
       </c>
       <c r="I8">
-        <v>25.77110569027726</v>
+        <v>18.07526577679885</v>
       </c>
       <c r="J8">
-        <v>9.845068385782335</v>
+        <v>5.29739217391164</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>10.00406270653408</v>
+        <v>5.429341088267424</v>
       </c>
       <c r="M8">
-        <v>23.66094432118468</v>
+        <v>27.04753036019575</v>
       </c>
       <c r="N8">
-        <v>17.52365272629315</v>
+        <v>19.6227569686698</v>
       </c>
       <c r="O8">
-        <v>25.05719102380449</v>
+        <v>18.15004164964774</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,43 +753,43 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>9.787834115759251</v>
+        <v>5.662463008595892</v>
       </c>
       <c r="D9">
-        <v>8.689025767988042</v>
+        <v>4.781519932228638</v>
       </c>
       <c r="E9">
-        <v>12.92223765737862</v>
+        <v>6.573621436158527</v>
       </c>
       <c r="F9">
-        <v>33.1525658296425</v>
+        <v>26.54374584283084</v>
       </c>
       <c r="G9">
-        <v>36.43587832893641</v>
+        <v>36.05971816785338</v>
       </c>
       <c r="H9">
-        <v>15.7748419301489</v>
+        <v>10.62317667245924</v>
       </c>
       <c r="I9">
-        <v>25.81910004050023</v>
+        <v>19.48694875585021</v>
       </c>
       <c r="J9">
-        <v>9.772642608495746</v>
+        <v>5.088946776704811</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>9.933160605705568</v>
+        <v>5.227221147346104</v>
       </c>
       <c r="M9">
-        <v>25.12668565930233</v>
+        <v>30.89206387626502</v>
       </c>
       <c r="N9">
-        <v>18.2475359574571</v>
+        <v>21.65995614118764</v>
       </c>
       <c r="O9">
-        <v>25.14967602768956</v>
+        <v>19.70960769221929</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,43 +800,43 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>9.747096005706975</v>
+        <v>5.706150422039957</v>
       </c>
       <c r="D10">
-        <v>8.652870328031083</v>
+        <v>4.747795806827958</v>
       </c>
       <c r="E10">
-        <v>12.83856692216571</v>
+        <v>6.357875385214064</v>
       </c>
       <c r="F10">
-        <v>33.29491972461639</v>
+        <v>28.16010174227945</v>
       </c>
       <c r="G10">
-        <v>36.93581680252016</v>
+        <v>38.88746955483261</v>
       </c>
       <c r="H10">
-        <v>15.77209831970058</v>
+        <v>11.03041740050685</v>
       </c>
       <c r="I10">
-        <v>25.88323362928522</v>
+        <v>20.54407391278683</v>
       </c>
       <c r="J10">
-        <v>9.723872584602436</v>
+        <v>4.942059802570979</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>9.885425445999802</v>
+        <v>5.084831235720942</v>
       </c>
       <c r="M10">
-        <v>26.14762121130933</v>
+        <v>33.42630969155114</v>
       </c>
       <c r="N10">
-        <v>18.76906311125303</v>
+        <v>23.05298430993147</v>
       </c>
       <c r="O10">
-        <v>25.24606804762422</v>
+        <v>20.86242920338012</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,43 +847,43 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>9.730299451296183</v>
+        <v>5.731401816434325</v>
       </c>
       <c r="D11">
-        <v>8.637528207826145</v>
+        <v>4.735524825512911</v>
       </c>
       <c r="E11">
-        <v>12.80229244486571</v>
+        <v>6.263507163821481</v>
       </c>
       <c r="F11">
-        <v>33.36816659101643</v>
+        <v>28.89415191604921</v>
       </c>
       <c r="G11">
-        <v>37.17238225691322</v>
+        <v>40.14705217055429</v>
       </c>
       <c r="H11">
-        <v>15.77398191973428</v>
+        <v>11.22068826038996</v>
       </c>
       <c r="I11">
-        <v>25.9186283028718</v>
+        <v>21.02789503208475</v>
       </c>
       <c r="J11">
-        <v>9.70264128637521</v>
+        <v>4.876482225358155</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>9.864646620192966</v>
+        <v>5.021265232229162</v>
       </c>
       <c r="M11">
-        <v>26.59817075928361</v>
+        <v>34.51592631926547</v>
       </c>
       <c r="N11">
-        <v>19.00308649174737</v>
+        <v>23.66233998273368</v>
       </c>
       <c r="O11">
-        <v>25.29600906267951</v>
+        <v>21.3868041506973</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,43 +894,43 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>9.724188910703425</v>
+        <v>5.741769763434142</v>
       </c>
       <c r="D12">
-        <v>8.631877249840732</v>
+        <v>4.731341984925356</v>
       </c>
       <c r="E12">
-        <v>12.788812474399</v>
+        <v>6.228337550538448</v>
       </c>
       <c r="F12">
-        <v>33.39710997410911</v>
+        <v>29.17179108543598</v>
       </c>
       <c r="G12">
-        <v>37.26320495757874</v>
+        <v>40.62002638975139</v>
       </c>
       <c r="H12">
-        <v>15.77514471156606</v>
+        <v>11.29343812309417</v>
       </c>
       <c r="I12">
-        <v>25.9329197755264</v>
+        <v>21.21143003392142</v>
       </c>
       <c r="J12">
-        <v>9.69473813457129</v>
+        <v>4.851818595367012</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>9.856912179696399</v>
+        <v>4.997358166312065</v>
       </c>
       <c r="M12">
-        <v>26.76665685768641</v>
+        <v>34.91944553612976</v>
       </c>
       <c r="N12">
-        <v>19.09116365522377</v>
+        <v>23.88946764278207</v>
       </c>
       <c r="O12">
-        <v>25.31578717419914</v>
+        <v>21.58526052909729</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,43 +941,43 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>9.725493802151004</v>
+        <v>5.739500496859587</v>
       </c>
       <c r="D13">
-        <v>8.633087225793961</v>
+        <v>4.732221834269096</v>
       </c>
       <c r="E13">
-        <v>12.79170423519728</v>
+        <v>6.235886396700481</v>
       </c>
       <c r="F13">
-        <v>33.39082309165776</v>
+        <v>29.11201322934605</v>
       </c>
       <c r="G13">
-        <v>37.24359069720514</v>
+        <v>40.51834265376288</v>
       </c>
       <c r="H13">
-        <v>15.774874307155</v>
+        <v>11.27773940010655</v>
       </c>
       <c r="I13">
-        <v>25.92980245327168</v>
+        <v>21.17188951208324</v>
       </c>
       <c r="J13">
-        <v>9.696434149794495</v>
+        <v>4.857122980579494</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>9.858571976898455</v>
+        <v>5.002499847370228</v>
       </c>
       <c r="M13">
-        <v>26.73046693625592</v>
+        <v>34.83294485472626</v>
       </c>
       <c r="N13">
-        <v>19.07222000281633</v>
+        <v>23.84071443303169</v>
       </c>
       <c r="O13">
-        <v>25.31148922751049</v>
+        <v>21.54252585580539</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,43 +988,43 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>9.729791721835237</v>
+        <v>5.732238462136604</v>
       </c>
       <c r="D14">
-        <v>8.637060118981152</v>
+        <v>4.735171271249534</v>
       </c>
       <c r="E14">
-        <v>12.80117830511332</v>
+        <v>6.260602259042575</v>
       </c>
       <c r="F14">
-        <v>33.3705236913007</v>
+        <v>28.91700080992729</v>
       </c>
       <c r="G14">
-        <v>37.1798298664904</v>
+        <v>40.18604489328691</v>
       </c>
       <c r="H14">
-        <v>15.77406858003028</v>
+        <v>11.22665955571886</v>
       </c>
       <c r="I14">
-        <v>25.91978630727558</v>
+        <v>21.0429886016394</v>
       </c>
       <c r="J14">
-        <v>9.70198835327238</v>
+        <v>4.874449798880645</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>9.864007619783365</v>
+        <v>5.019295154322546</v>
       </c>
       <c r="M14">
-        <v>26.61207555508508</v>
+        <v>34.54930633268432</v>
       </c>
       <c r="N14">
-        <v>19.01034396255031</v>
+        <v>23.68109912237605</v>
       </c>
       <c r="O14">
-        <v>25.29761891146322</v>
+        <v>21.40313406336666</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,43 +1035,43 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>9.732456884226345</v>
+        <v>5.727896139899608</v>
       </c>
       <c r="D15">
-        <v>8.639514302867509</v>
+        <v>4.737038983996174</v>
       </c>
       <c r="E15">
-        <v>12.80701481537658</v>
+        <v>6.275815836108308</v>
       </c>
       <c r="F15">
-        <v>33.35824637315818</v>
+        <v>28.79750322932816</v>
       </c>
       <c r="G15">
-        <v>37.1409338268214</v>
+        <v>39.98197831304314</v>
       </c>
       <c r="H15">
-        <v>15.7736335600026</v>
+        <v>11.19546201542741</v>
       </c>
       <c r="I15">
-        <v>25.91376660915557</v>
+        <v>20.96407246239417</v>
       </c>
       <c r="J15">
-        <v>9.705408246342119</v>
+        <v>4.885084718957539</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>9.867354548541657</v>
+        <v>5.029603824846805</v>
       </c>
       <c r="M15">
-        <v>26.53927669144155</v>
+        <v>34.37438526375182</v>
       </c>
       <c r="N15">
-        <v>18.97237018398888</v>
+        <v>23.58285519969913</v>
       </c>
       <c r="O15">
-        <v>25.28923549022772</v>
+        <v>21.31773510949952</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,43 +1082,43 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>9.748228655499807</v>
+        <v>5.704611198556065</v>
       </c>
       <c r="D16">
-        <v>8.653895197415414</v>
+        <v>4.748661419346983</v>
       </c>
       <c r="E16">
-        <v>12.84097345947181</v>
+        <v>6.364120391471824</v>
       </c>
       <c r="F16">
-        <v>33.29030250810905</v>
+        <v>28.11209116600583</v>
       </c>
       <c r="G16">
-        <v>36.92053437133039</v>
+        <v>38.80459954397771</v>
       </c>
       <c r="H16">
-        <v>15.77203817549915</v>
+        <v>11.01808164796862</v>
       </c>
       <c r="I16">
-        <v>25.8810451633544</v>
+        <v>20.51250512922055</v>
       </c>
       <c r="J16">
-        <v>9.725279256969012</v>
+        <v>4.946369649442276</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>9.886802180168162</v>
+        <v>5.08900891387314</v>
       </c>
       <c r="M16">
-        <v>26.11788594316058</v>
+        <v>33.35382782139584</v>
       </c>
       <c r="N16">
-        <v>18.75369744674846</v>
+        <v>23.01266073658911</v>
       </c>
       <c r="O16">
-        <v>25.24292608499181</v>
+        <v>20.82814947583011</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,43 +1129,43 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>9.758348896506064</v>
+        <v>5.691727455371614</v>
       </c>
       <c r="D17">
-        <v>8.663000361444499</v>
+        <v>4.756593412942849</v>
       </c>
       <c r="E17">
-        <v>12.86226337965937</v>
+        <v>6.419274292432686</v>
       </c>
       <c r="F17">
-        <v>33.25078580225779</v>
+        <v>27.69117706605056</v>
       </c>
       <c r="G17">
-        <v>36.78761589974913</v>
+        <v>38.07532828680039</v>
       </c>
       <c r="H17">
-        <v>15.77186105892083</v>
+        <v>10.9105318173401</v>
       </c>
       <c r="I17">
-        <v>25.86256064650723</v>
+        <v>20.23615718754898</v>
       </c>
       <c r="J17">
-        <v>9.737713526722246</v>
+        <v>4.984277527798738</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>9.898972035763345</v>
+        <v>5.125754664063754</v>
       </c>
       <c r="M17">
-        <v>25.85572421148386</v>
+        <v>32.71154843538498</v>
       </c>
       <c r="N17">
-        <v>18.61866605418301</v>
+        <v>22.65653653635951</v>
       </c>
       <c r="O17">
-        <v>25.21607065628902</v>
+        <v>20.52770903079803</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,43 +1176,43 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>9.764333114028803</v>
+        <v>5.684821371674134</v>
       </c>
       <c r="D18">
-        <v>8.668341443709657</v>
+        <v>4.761443275219579</v>
       </c>
       <c r="E18">
-        <v>12.87467709143227</v>
+        <v>6.451351166756429</v>
       </c>
       <c r="F18">
-        <v>33.22885686948525</v>
+        <v>27.44896877268626</v>
       </c>
       <c r="G18">
-        <v>36.71202971123709</v>
+        <v>37.65335515587054</v>
       </c>
       <c r="H18">
-        <v>15.77205402046073</v>
+        <v>10.84914523274652</v>
       </c>
       <c r="I18">
-        <v>25.85251472711774</v>
+        <v>20.07748966656315</v>
       </c>
       <c r="J18">
-        <v>9.744955258809652</v>
+        <v>5.006198636530392</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>9.906059962052939</v>
+        <v>5.147004152973605</v>
       </c>
       <c r="M18">
-        <v>25.70363641783431</v>
+        <v>32.33617449835411</v>
       </c>
       <c r="N18">
-        <v>18.54070079024731</v>
+        <v>22.44941804673472</v>
       </c>
       <c r="O18">
-        <v>25.20119815315071</v>
+        <v>20.35490385942747</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,43 +1223,43 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>9.766387305673222</v>
+        <v>5.682568698484798</v>
       </c>
       <c r="D19">
-        <v>8.67016771482327</v>
+        <v>4.763134082417139</v>
       </c>
       <c r="E19">
-        <v>12.87890909012271</v>
+        <v>6.462271987401991</v>
       </c>
       <c r="F19">
-        <v>33.22156992537546</v>
+        <v>27.36694756367526</v>
       </c>
       <c r="G19">
-        <v>36.68658830068124</v>
+        <v>37.51005598365811</v>
       </c>
       <c r="H19">
-        <v>15.77217001265567</v>
+        <v>10.82844281407019</v>
       </c>
       <c r="I19">
-        <v>25.84921414885421</v>
+        <v>20.02381907141942</v>
       </c>
       <c r="J19">
-        <v>9.747422637279209</v>
+        <v>5.013641207505602</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>9.908474968792643</v>
+        <v>5.154218782787761</v>
       </c>
       <c r="M19">
-        <v>25.65192315168778</v>
+        <v>32.20805744727989</v>
       </c>
       <c r="N19">
-        <v>18.51425425121173</v>
+        <v>22.37890289176625</v>
       </c>
       <c r="O19">
-        <v>25.1962614386356</v>
+        <v>20.29639865268325</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,43 +1270,43 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>9.757254673368129</v>
+        <v>5.693046519639195</v>
       </c>
       <c r="D20">
-        <v>8.662020335311887</v>
+        <v>4.755719115126731</v>
       </c>
       <c r="E20">
-        <v>12.85997961661589</v>
+        <v>6.41336629645381</v>
       </c>
       <c r="F20">
-        <v>33.25490972141372</v>
+        <v>27.73599664629602</v>
       </c>
       <c r="G20">
-        <v>36.80167630092758</v>
+        <v>38.1532221249225</v>
       </c>
       <c r="H20">
-        <v>15.77184940410773</v>
+        <v>10.92193187796576</v>
       </c>
       <c r="I20">
-        <v>25.86446775923058</v>
+        <v>20.26554664357231</v>
       </c>
       <c r="J20">
-        <v>9.736380580484266</v>
+        <v>4.980230075441872</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>9.897667415058317</v>
+        <v>5.121831254434152</v>
       </c>
       <c r="M20">
-        <v>25.88376723832053</v>
+        <v>32.78053623382783</v>
       </c>
       <c r="N20">
-        <v>18.63307188450876</v>
+        <v>22.69468403988644</v>
       </c>
       <c r="O20">
-        <v>25.21887011750598</v>
+        <v>20.55969224876159</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,43 +1317,43 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>9.728522531957097</v>
+        <v>5.734349375228009</v>
       </c>
       <c r="D21">
-        <v>8.635888876168446</v>
+        <v>4.734292176059468</v>
       </c>
       <c r="E21">
-        <v>12.79838858829224</v>
+        <v>6.253327060434439</v>
       </c>
       <c r="F21">
-        <v>33.37645349944501</v>
+        <v>28.97429066829041</v>
       </c>
       <c r="G21">
-        <v>37.19852490344328</v>
+        <v>40.28375830727137</v>
       </c>
       <c r="H21">
-        <v>15.77429304978773</v>
+        <v>11.24164415303835</v>
       </c>
       <c r="I21">
-        <v>25.92270423847943</v>
+        <v>21.08084186353629</v>
       </c>
       <c r="J21">
-        <v>9.700353244103718</v>
+        <v>4.869355978516359</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>9.862407406116446</v>
+        <v>5.014357594782286</v>
       </c>
       <c r="M21">
-        <v>26.64690869400663</v>
+        <v>34.63286463201209</v>
       </c>
       <c r="N21">
-        <v>19.02853378686873</v>
+        <v>23.72808117066294</v>
       </c>
       <c r="O21">
-        <v>25.30166952311777</v>
+        <v>21.44408060488527</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,43 +1364,43 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>9.711201491787778</v>
+        <v>5.766054269978096</v>
       </c>
       <c r="D22">
-        <v>8.619735822333171</v>
+        <v>4.723003594738399</v>
       </c>
       <c r="E22">
-        <v>12.75962939941683</v>
+        <v>6.152042415931097</v>
       </c>
       <c r="F22">
-        <v>33.46291324117691</v>
+        <v>29.78162014881114</v>
       </c>
       <c r="G22">
-        <v>37.46508296577113</v>
+        <v>41.65283333156574</v>
       </c>
       <c r="H22">
-        <v>15.7785096546764</v>
+        <v>11.45465772676786</v>
       </c>
       <c r="I22">
-        <v>25.9659391550113</v>
+        <v>21.61553214479762</v>
       </c>
       <c r="J22">
-        <v>9.677603713888812</v>
+        <v>4.79787470418289</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>9.840144037925779</v>
+        <v>4.945068337765635</v>
       </c>
       <c r="M22">
-        <v>27.13321399595622</v>
+        <v>35.80797681564687</v>
       </c>
       <c r="N22">
-        <v>19.28379558474168</v>
+        <v>24.38231248627819</v>
       </c>
       <c r="O22">
-        <v>25.36082934911078</v>
+        <v>22.02138867349736</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,43 +1411,43 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>9.720312606177821</v>
+        <v>5.748691249679772</v>
       </c>
       <c r="D23">
-        <v>8.628272389339507</v>
+        <v>4.728772419690898</v>
       </c>
       <c r="E23">
-        <v>12.78017942135417</v>
+        <v>6.205788462861968</v>
       </c>
       <c r="F23">
-        <v>33.41613055918323</v>
+        <v>29.35095425188574</v>
       </c>
       <c r="G23">
-        <v>37.32218268043164</v>
+        <v>40.92430236289372</v>
       </c>
       <c r="H23">
-        <v>15.77601982399491</v>
+        <v>11.34060313856533</v>
       </c>
       <c r="I23">
-        <v>25.9423927321246</v>
+        <v>21.33001634628409</v>
       </c>
       <c r="J23">
-        <v>9.689672879847414</v>
+        <v>4.835939053654843</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>9.85195513283538</v>
+        <v>4.981965659294914</v>
       </c>
       <c r="M23">
-        <v>26.8748433777057</v>
+        <v>35.17747886253414</v>
       </c>
       <c r="N23">
-        <v>19.14787502785337</v>
+        <v>24.03510699785196</v>
       </c>
       <c r="O23">
-        <v>25.32879638091394</v>
+        <v>21.71336046197104</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,43 +1458,43 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>9.757748854746925</v>
+        <v>5.692448612802989</v>
       </c>
       <c r="D24">
-        <v>8.66246307368783</v>
+        <v>4.756113484647423</v>
       </c>
       <c r="E24">
-        <v>12.86101156428782</v>
+        <v>6.416036156351248</v>
       </c>
       <c r="F24">
-        <v>33.25304283643084</v>
+        <v>27.71573438480342</v>
       </c>
       <c r="G24">
-        <v>36.79531700123185</v>
+        <v>38.1180147350349</v>
       </c>
       <c r="H24">
-        <v>15.77185375490755</v>
+        <v>10.91677652193823</v>
       </c>
       <c r="I24">
-        <v>25.86360374306322</v>
+        <v>20.25225901304261</v>
       </c>
       <c r="J24">
-        <v>9.736982915410975</v>
+        <v>4.982059531233054</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>9.89825694959025</v>
+        <v>5.123604641381626</v>
       </c>
       <c r="M24">
-        <v>25.87109323526688</v>
+        <v>32.74936590894505</v>
       </c>
       <c r="N24">
-        <v>18.6265600426357</v>
+        <v>22.67744495079939</v>
       </c>
       <c r="O24">
-        <v>25.21760271404456</v>
+        <v>20.54523287040761</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,43 +1505,43 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>9.804372352541749</v>
+        <v>5.650921028283866</v>
       </c>
       <c r="D25">
-        <v>8.703321360655993</v>
+        <v>4.796518190095118</v>
       </c>
       <c r="E25">
-        <v>12.95464018715392</v>
+        <v>6.656291054019587</v>
       </c>
       <c r="F25">
-        <v>33.10775429106086</v>
+        <v>25.94860668010741</v>
       </c>
       <c r="G25">
-        <v>36.2603482985898</v>
+        <v>34.99603142273834</v>
       </c>
       <c r="H25">
-        <v>15.77863280978132</v>
+        <v>10.47781788045414</v>
       </c>
       <c r="I25">
-        <v>25.80103177517433</v>
+        <v>19.10100744944777</v>
       </c>
       <c r="J25">
-        <v>9.791452782721722</v>
+        <v>5.144200960272614</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>9.951573456086592</v>
+        <v>5.280790180982324</v>
       </c>
       <c r="M25">
-        <v>24.73935125211131</v>
+        <v>29.9028545286002</v>
       </c>
       <c r="N25">
-        <v>18.05316775886538</v>
+        <v>21.12632852363092</v>
       </c>
       <c r="O25">
-        <v>25.11963562153047</v>
+        <v>19.28585913490837</v>
       </c>
     </row>
   </sheetData>
